--- a/results/mod3.lreconBYhealth.eff.COMB.xlsx
+++ b/results/mod3.lreconBYhealth.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0340053681961418</v>
+        <v>-0.0340059098653205</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0206155029765261</v>
+        <v>0.0206153728393486</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0744110115533113</v>
+        <v>-0.0744112981583089</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00640027516102766</v>
+        <v>0.00639947842766796</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.6495046584535</v>
+        <v>-1.64954134617509</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0990442896080941</v>
+        <v>0.0990367799666756</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00800002507236424</v>
+        <v>0.00800040274388542</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0143271657595262</v>
+        <v>0.0143270837644187</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0200807038168426</v>
+        <v>-0.0200801654378638</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0360807539615711</v>
+        <v>0.0360809709256346</v>
       </c>
       <c r="G3" t="n">
-        <v>0.558381553381901</v>
+        <v>0.558411109716159</v>
       </c>
       <c r="H3" t="n">
-        <v>0.57658386643537</v>
+        <v>0.576563688221644</v>
       </c>
     </row>
   </sheetData>
